--- a/Experimental Data/25April2022 Phi vs P22 Flasks/growthcurvecompassayMay13.xlsx
+++ b/Experimental Data/25April2022 Phi vs P22 Flasks/growthcurvecompassayMay13.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abisesi/Desktop/PhD/Projects/Host-Ecology-and-Host-Range/Experimental Data/25April2022 Phi vs P22 Flasks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D7B408-5FA1-BB46-B8CB-70019940C129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A49413B-C717-3540-9EA7-A60FB799D6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15380" activeTab="1" xr2:uid="{C1CE0F00-A56C-F246-8EE8-D458F3A60DF0}"/>
   </bookViews>
   <sheets>
     <sheet name="PFU_raw" sheetId="1" r:id="rId1"/>
     <sheet name="PFU_stat" sheetId="2" r:id="rId2"/>
-    <sheet name="PFU_double" sheetId="3" r:id="rId3"/>
+    <sheet name="Percent_change" sheetId="4" r:id="rId3"/>
+    <sheet name="Fullchange" sheetId="6" r:id="rId4"/>
+    <sheet name="PFU_double" sheetId="3" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="43">
   <si>
     <t>Condition</t>
   </si>
@@ -157,7 +159,40 @@
     <t>STDEV</t>
   </si>
   <si>
-    <t>Log</t>
+    <t>S monoculture</t>
+  </si>
+  <si>
+    <t>Cooperation</t>
+  </si>
+  <si>
+    <t>Competition</t>
+  </si>
+  <si>
+    <t>Facilitation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time 0 </t>
+  </si>
+  <si>
+    <t>Time 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Per Change </t>
+  </si>
+  <si>
+    <t>NetChange</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Fac</t>
+  </si>
+  <si>
+    <t>Coop</t>
+  </si>
+  <si>
+    <t>Comp</t>
   </si>
 </sst>
 </file>
@@ -229,7 +264,7 @@
       <sheetName val="Doublings"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="41">
           <cell r="B41">
             <v>0</v>
@@ -1599,7 +1634,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1">
+      <sheetData sheetId="1" refreshError="1">
         <row r="2">
           <cell r="B2">
             <v>175</v>
@@ -2513,7 +2548,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2">
+      <sheetData sheetId="2" refreshError="1">
         <row r="2">
           <cell r="B2">
             <v>0</v>
@@ -3273,18 +3308,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E503C6B0-867D-DF4B-A188-F2E768365DB0}">
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P11" sqref="P11:Q16"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="16" max="17" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3324,8 +3360,20 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -3365,8 +3413,20 @@
       <c r="M2">
         <v>3500000000</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O2">
+        <f>B2/(B2+C2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="P2">
+        <f>J2/(J2+K2)</f>
+        <v>0.99999999966666664</v>
+      </c>
+      <c r="Q2">
+        <f>P2-O2</f>
+        <v>0.49999999966666664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -3406,8 +3466,28 @@
       <c r="M3">
         <v>1500000000</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O3">
+        <f>B3/(B3+C3)</f>
+        <v>0.98684210526315785</v>
+      </c>
+      <c r="P3">
+        <f>J3/(J3+K3)</f>
+        <v>2.9850746268656712E-2</v>
+      </c>
+      <c r="Q3">
+        <f>P3-O3</f>
+        <v>-0.95699135899450116</v>
+      </c>
+      <c r="R3">
+        <f>AVERAGE(Q3:Q4)</f>
+        <v>-0.94599879670423315</v>
+      </c>
+      <c r="S3">
+        <f>STDEV(Q3:Q4)</f>
+        <v>1.5545830676128079E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -3447,8 +3527,20 @@
       <c r="M4">
         <v>4500000000</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O4">
+        <f>B4/(B4+C4)</f>
+        <v>0.99750623441396513</v>
+      </c>
+      <c r="P4">
+        <f>J4/(J4+K4)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="Q4">
+        <f>P4-O4</f>
+        <v>-0.93500623441396513</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -3489,7 +3581,7 @@
         <v>4500000000</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -3529,8 +3621,20 @@
       <c r="M6">
         <v>5000000000</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N6">
+        <f>LOG(J3/B3)</f>
+        <v>7.4259687322722812</v>
+      </c>
+      <c r="O6">
+        <f>LOG(K3/C3,2)</f>
+        <v>35.919720667014722</v>
+      </c>
+      <c r="P6">
+        <f>STDEV(O6:O7)</f>
+        <v>0.14598281543912434</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -3570,8 +3674,16 @@
       <c r="M7">
         <v>3000000000</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N7">
+        <f>LOG(J4/B4)</f>
+        <v>7.0969100130080562</v>
+      </c>
+      <c r="O7">
+        <f>LOG(K4/C4,2)</f>
+        <v>36.126171544482141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -3611,8 +3723,16 @@
       <c r="M8">
         <v>3000000000</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O8">
+        <f>LOG(K5/C5,2)</f>
+        <v>32.219280948873624</v>
+      </c>
+      <c r="P8">
+        <f>STDEV(O8:O9)</f>
+        <v>1.0422267382721968</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -3652,8 +3772,12 @@
       <c r="M9">
         <v>2500000000</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O9">
+        <f>LOG(K6/C6,2)</f>
+        <v>30.74534976054121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -3693,17 +3817,8 @@
       <c r="M10">
         <v>5000000000</v>
       </c>
-      <c r="P10">
-        <v>48</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>30</v>
-      </c>
-      <c r="R10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -3743,19 +3858,20 @@
       <c r="M11">
         <v>5000000000</v>
       </c>
-      <c r="O11" t="s">
-        <v>13</v>
+      <c r="O11">
+        <f>B11/(B11+C11)</f>
+        <v>0.7</v>
       </c>
       <c r="P11">
-        <f>AVERAGE($L2:$L4)</f>
-        <v>55000000000</v>
+        <f>J11/(J11+K11)</f>
+        <v>0.9375</v>
       </c>
       <c r="Q11">
-        <f>STDEV($L2:$L4)</f>
-        <v>13228756555.322943</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+        <f>P11-O11</f>
+        <v>0.23750000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -3795,19 +3911,20 @@
       <c r="M12">
         <v>7000000000</v>
       </c>
-      <c r="O12" t="s">
-        <v>14</v>
+      <c r="O12">
+        <f>B12/(B12+C12)</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="P12">
-        <f>AVERAGE($L5:$L7)</f>
-        <v>18333333333.333332</v>
+        <f>J12/(J12+K12)</f>
+        <v>0.8571428571428571</v>
       </c>
       <c r="Q12">
-        <f>STDEV($L5:$L7)</f>
-        <v>10408329997.330666</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+        <f>P12-O12</f>
+        <v>2.3809523809523725E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -3847,19 +3964,28 @@
       <c r="M13">
         <v>6500000000</v>
       </c>
-      <c r="O13" t="s">
-        <v>15</v>
+      <c r="O13">
+        <f>B13/(B13+C13)</f>
+        <v>0.70588235294117652</v>
       </c>
       <c r="P13">
-        <f>AVERAGE($L8:$L10)</f>
-        <v>15000000000</v>
+        <f>J13/(J13+K13)</f>
+        <v>0.91954022988505746</v>
       </c>
       <c r="Q13">
-        <f>STDEV($L8:$L10)</f>
-        <v>17320508075.688774</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+        <f>P13-O13</f>
+        <v>0.21365787694388094</v>
+      </c>
+      <c r="R13">
+        <f>AVERAGE(Q11:Q13)</f>
+        <v>0.15832246691780158</v>
+      </c>
+      <c r="S13">
+        <f>STDEV(Q11:Q13)</f>
+        <v>0.11710000258622487</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -3899,19 +4025,8 @@
       <c r="M14">
         <v>1500000000</v>
       </c>
-      <c r="O14" t="s">
-        <v>16</v>
-      </c>
-      <c r="P14">
-        <f>AVERAGE($L11:$L13)</f>
-        <v>3500000000</v>
-      </c>
-      <c r="Q14">
-        <f>STDEV($L11:$L13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -3951,19 +4066,8 @@
       <c r="M15">
         <v>4500000000</v>
       </c>
-      <c r="O15" t="s">
-        <v>17</v>
-      </c>
-      <c r="P15">
-        <f>AVERAGE($L14:$L16)</f>
-        <v>4000000000</v>
-      </c>
-      <c r="Q15">
-        <f>STDEV($L14:$L16)</f>
-        <v>500000000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -4003,19 +4107,8 @@
       <c r="M16">
         <v>1999999999.9999998</v>
       </c>
-      <c r="O16" t="s">
-        <v>18</v>
-      </c>
-      <c r="P16">
-        <f>AVERAGE($L17:$L19)</f>
-        <v>4833333333.333333</v>
-      </c>
-      <c r="Q16">
-        <f>STDEV($L17:$L19)</f>
-        <v>288675134.59481287</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -4056,7 +4149,7 @@
         <v>1999999999.9999998</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -4097,7 +4190,7 @@
         <v>2500000000</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -4138,7 +4231,7 @@
         <v>2500000000</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4178,8 +4271,20 @@
       <c r="M20">
         <v>1500000000</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O20">
+        <f>B20/(B20+C20)</f>
+        <v>0.6</v>
+      </c>
+      <c r="P20">
+        <f>L20/(L20+M20)</f>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="Q20">
+        <f>P20-O20</f>
+        <v>0.1692307692307693</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -4219,8 +4324,28 @@
       <c r="M21">
         <v>2500000000</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O21">
+        <f>B21/(B21+C21)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P21">
+        <f>L21/(L21+M21)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q21">
+        <f>P21-O21</f>
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <f>AVERAGE(Q20:Q22)</f>
+        <v>9.6092796092796126E-2</v>
+      </c>
+      <c r="S21">
+        <f>STDEV(Q20:Q22)</f>
+        <v>8.6919251240878292E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -4260,8 +4385,20 @@
       <c r="M22">
         <v>999999999.99999988</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O22">
+        <f>B22/(B22+C22)</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="P22">
+        <f>L22/(L22+M22)</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="Q22">
+        <f>P22-O22</f>
+        <v>0.11904761904761907</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -4302,7 +4439,7 @@
         <v>999999999.99999988</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -4343,7 +4480,7 @@
         <v>3500000000</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -4383,8 +4520,12 @@
       <c r="M25">
         <v>4500000000</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25">
+        <f>AVERAGE(L26:L27)</f>
+        <v>5000000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -4424,8 +4565,16 @@
       <c r="M26">
         <v>1500000000</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N26">
+        <f>LOG(L26/B26,2)</f>
+        <v>26.575424759098901</v>
+      </c>
+      <c r="O26">
+        <f>STDEV(N26:N27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -4465,8 +4614,12 @@
       <c r="M27">
         <v>1999999999.9999998</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N27">
+        <f>LOG(L27/B27,2)</f>
+        <v>26.575424759098901</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -4507,7 +4660,7 @@
         <v>3000000000</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -4547,8 +4700,20 @@
       <c r="M29">
         <v>999999999.99999988</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O29">
+        <f>B29/(B29+C29)</f>
+        <v>0.4</v>
+      </c>
+      <c r="P29">
+        <f>J29/(J29+K29)</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="Q29">
+        <f>P29-O29</f>
+        <v>-0.11428571428571432</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -4588,8 +4753,28 @@
       <c r="M30">
         <v>2500000000</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O30">
+        <f>B30/(B30+C30)</f>
+        <v>0.25</v>
+      </c>
+      <c r="P30">
+        <f>J30/(J30+K30)</f>
+        <v>0.25373134328358204</v>
+      </c>
+      <c r="Q30">
+        <f>P30-O30</f>
+        <v>3.7313432835820448E-3</v>
+      </c>
+      <c r="R30">
+        <f>AVERAGE(Q29:Q31)</f>
+        <v>-0.10828002842928219</v>
+      </c>
+      <c r="S30">
+        <f>STDEV(Q29:Q31)</f>
+        <v>0.10913253659998966</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -4629,8 +4814,20 @@
       <c r="M31">
         <v>1500000000</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O31">
+        <f>B31/(B31+C31)</f>
+        <v>0.5</v>
+      </c>
+      <c r="P31">
+        <f>J31/(J31+K31)</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="Q31">
+        <f>P31-O31</f>
+        <v>-0.2142857142857143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -4883,10 +5080,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DBA7304-481C-7A46-9FF7-925551D2D12A}">
-  <dimension ref="A1:E145"/>
+  <dimension ref="A1:G145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="I132" sqref="I132"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="G141" sqref="G141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5167,7 +5364,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -5184,7 +5381,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -5201,7 +5398,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -5218,7 +5415,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -5234,8 +5431,12 @@
       <c r="E20" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <f>C8/(C8+C20)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -5251,8 +5452,12 @@
       <c r="E21" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <f>C9/(C9+C21)</f>
+        <v>0.39999999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -5268,8 +5473,12 @@
       <c r="E22" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <f>C10/(C10+C22)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -5286,7 +5495,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -5303,7 +5512,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -5320,7 +5529,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -5339,7 +5548,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -5356,7 +5565,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -5373,7 +5582,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -5390,7 +5599,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -5407,7 +5616,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -5424,7 +5633,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -7089,7 +7298,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>20</v>
       </c>
@@ -7106,7 +7315,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>21</v>
       </c>
@@ -7123,7 +7332,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>22</v>
       </c>
@@ -7140,7 +7349,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>23</v>
       </c>
@@ -7157,7 +7366,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>24</v>
       </c>
@@ -7174,7 +7383,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>13</v>
       </c>
@@ -7193,7 +7402,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>14</v>
       </c>
@@ -7210,7 +7419,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>15</v>
       </c>
@@ -7227,7 +7436,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>16</v>
       </c>
@@ -7244,7 +7453,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>17</v>
       </c>
@@ -7261,7 +7470,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>18</v>
       </c>
@@ -7278,7 +7487,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>19</v>
       </c>
@@ -7294,8 +7503,12 @@
       <c r="E140" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F140">
+        <f>C128/(C128+C140)</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>20</v>
       </c>
@@ -7311,8 +7524,12 @@
       <c r="E141" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F141">
+        <f>C129/(C129+C141)</f>
+        <v>0.81632653061224492</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>21</v>
       </c>
@@ -7328,8 +7545,15 @@
       <c r="E142" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F142">
+        <f>G142/(G142+C142)</f>
+        <v>0.69767441860465118</v>
+      </c>
+      <c r="G142" s="1">
+        <v>5000000000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>22</v>
       </c>
@@ -7346,7 +7570,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>23</v>
       </c>
@@ -7386,10 +7610,199 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78DA29F-03FA-4841-8A81-6D652824B828}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>-0.94599879670423315</v>
+      </c>
+      <c r="C2">
+        <v>1.5545830676128079E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>9.6092796092796126E-2</v>
+      </c>
+      <c r="C3">
+        <v>8.6919251240878292E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>-0.10828002842928219</v>
+      </c>
+      <c r="C4">
+        <v>0.10913253659998966</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>0.15832246691780158</v>
+      </c>
+      <c r="C5">
+        <v>0.11710000258622487</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F35385E-13B2-C44B-AC11-C9CC7B0C0002}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2">
+        <v>-0.84321201617606545</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3">
+        <v>-0.55381944444444442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4">
+        <v>-0.73466160658025181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>0.16138763197586736</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>0.45647969052224374</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8">
+        <v>8.333333333333337E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9">
+        <v>0.41632653061224495</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10">
+        <v>-6.0606060582185428E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11">
+        <v>-0.11309220580743756</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12">
+        <v>-0.33320914058618967</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13">
+        <v>-0.80140909321303666</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5B0721-9A2C-0F49-A654-548D792AB43E}">
   <dimension ref="A1:E145"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="J138" sqref="J138"/>
     </sheetView>
   </sheetViews>

--- a/Experimental Data/25April2022 Phi vs P22 Flasks/growthcurvecompassayMay13.xlsx
+++ b/Experimental Data/25April2022 Phi vs P22 Flasks/growthcurvecompassayMay13.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abisesi/Desktop/PhD/Projects/Host-Ecology-and-Host-Range/Experimental Data/25April2022 Phi vs P22 Flasks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A49413B-C717-3540-9EA7-A60FB799D6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B236D5-36DF-FE45-BC0D-22911217DA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15380" activeTab="1" xr2:uid="{C1CE0F00-A56C-F246-8EE8-D458F3A60DF0}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15380" activeTab="4" xr2:uid="{C1CE0F00-A56C-F246-8EE8-D458F3A60DF0}"/>
   </bookViews>
   <sheets>
     <sheet name="PFU_raw" sheetId="1" r:id="rId1"/>
     <sheet name="PFU_stat" sheetId="2" r:id="rId2"/>
     <sheet name="Percent_change" sheetId="4" r:id="rId3"/>
     <sheet name="Fullchange" sheetId="6" r:id="rId4"/>
-    <sheet name="PFU_double" sheetId="3" r:id="rId5"/>
+    <sheet name="Allchange" sheetId="7" r:id="rId5"/>
+    <sheet name="PFU_double" sheetId="3" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="43">
   <si>
     <t>Condition</t>
   </si>
@@ -171,15 +172,6 @@
     <t>Facilitation</t>
   </si>
   <si>
-    <t xml:space="preserve">Time 0 </t>
-  </si>
-  <si>
-    <t>Time 24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Per Change </t>
-  </si>
-  <si>
     <t>NetChange</t>
   </si>
   <si>
@@ -193,6 +185,15 @@
   </si>
   <si>
     <t>Comp</t>
+  </si>
+  <si>
+    <t>Per Gen Start</t>
+  </si>
+  <si>
+    <t>Per Gen End</t>
+  </si>
+  <si>
+    <t>PerChange</t>
   </si>
 </sst>
 </file>
@@ -3308,10 +3309,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E503C6B0-867D-DF4B-A188-F2E768365DB0}">
-  <dimension ref="A1:S37"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3320,7 +3321,7 @@
     <col min="15" max="17" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3361,19 +3362,16 @@
         <v>12</v>
       </c>
       <c r="O1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="P1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="Q1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -3405,7 +3403,7 @@
         <v>3000000000</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>65000000000</v>
       </c>
       <c r="L2">
         <v>65000000000</v>
@@ -3419,14 +3417,14 @@
       </c>
       <c r="P2">
         <f>J2/(J2+K2)</f>
-        <v>0.99999999966666664</v>
+        <v>4.4117647058823532E-2</v>
       </c>
       <c r="Q2">
         <f>P2-O2</f>
-        <v>0.49999999966666664</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+        <v>-0.45588235294117646</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -3478,16 +3476,8 @@
         <f>P3-O3</f>
         <v>-0.95699135899450116</v>
       </c>
-      <c r="R3">
-        <f>AVERAGE(Q3:Q4)</f>
-        <v>-0.94599879670423315</v>
-      </c>
-      <c r="S3">
-        <f>STDEV(Q3:Q4)</f>
-        <v>1.5545830676128079E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -3540,7 +3530,7 @@
         <v>-0.93500623441396513</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -3580,8 +3570,20 @@
       <c r="M5">
         <v>4500000000</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O5">
+        <f>B5/(B5+C5)</f>
+        <v>0.99009900990099009</v>
+      </c>
+      <c r="P5">
+        <f>J5/(J5+K5)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q5">
+        <f>P5-O5</f>
+        <v>-0.65676567656765683</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -3621,20 +3623,20 @@
       <c r="M6">
         <v>5000000000</v>
       </c>
-      <c r="N6">
-        <f>LOG(J3/B3)</f>
-        <v>7.4259687322722812</v>
-      </c>
       <c r="O6">
-        <f>LOG(K3/C3,2)</f>
-        <v>35.919720667014722</v>
+        <f>B6/(B6+C6)</f>
+        <v>0.8</v>
       </c>
       <c r="P6">
-        <f>STDEV(O6:O7)</f>
-        <v>0.14598281543912434</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+        <f>J6/(J6+K6)</f>
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="Q6">
+        <f>P6-O6</f>
+        <v>-0.74736842105263168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -3674,16 +3676,20 @@
       <c r="M7">
         <v>3000000000</v>
       </c>
-      <c r="N7">
-        <f>LOG(J4/B4)</f>
-        <v>7.0969100130080562</v>
-      </c>
       <c r="O7">
-        <f>LOG(K4/C4,2)</f>
-        <v>36.126171544482141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+        <f>B7/(B7+C7)</f>
+        <v>0.5</v>
+      </c>
+      <c r="P7">
+        <f>J7/(J7+K7)</f>
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="Q7">
+        <f>P7-O7</f>
+        <v>-0.38235294117647062</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -3715,7 +3721,7 @@
         <v>3500000000</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>10000000000</v>
       </c>
       <c r="L8">
         <v>35000000000</v>
@@ -3724,15 +3730,19 @@
         <v>3000000000</v>
       </c>
       <c r="O8">
-        <f>LOG(K5/C5,2)</f>
-        <v>32.219280948873624</v>
+        <f>B8/(B8+C8)</f>
+        <v>0.7142857142857143</v>
       </c>
       <c r="P8">
-        <f>STDEV(O8:O9)</f>
-        <v>1.0422267382721968</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+        <f>J8/(J8+K8)</f>
+        <v>0.25925925925925924</v>
+      </c>
+      <c r="Q8">
+        <f>P8-O8</f>
+        <v>-0.45502645502645506</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -3773,11 +3783,19 @@
         <v>2500000000</v>
       </c>
       <c r="O9">
-        <f>LOG(K6/C6,2)</f>
-        <v>30.74534976054121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+        <f>B9/(B9+C9)</f>
+        <v>0.99637681159420288</v>
+      </c>
+      <c r="P9">
+        <f>J9/(J9+K9)</f>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="Q9">
+        <f>P9-O9</f>
+        <v>-0.76560758082497204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -3817,8 +3835,20 @@
       <c r="M10">
         <v>5000000000</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O10">
+        <f>B10/(B10+C10)</f>
+        <v>0.98684210526315785</v>
+      </c>
+      <c r="P10">
+        <f>J10/(J10+K10)</f>
+        <v>0.10569105691056911</v>
+      </c>
+      <c r="Q10">
+        <f>P10-O10</f>
+        <v>-0.88115104835258873</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -3871,7 +3901,7 @@
         <v>0.23750000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -3924,7 +3954,7 @@
         <v>2.3809523809523725E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -3976,16 +4006,8 @@
         <f>P13-O13</f>
         <v>0.21365787694388094</v>
       </c>
-      <c r="R13">
-        <f>AVERAGE(Q11:Q13)</f>
-        <v>0.15832246691780158</v>
-      </c>
-      <c r="S13">
-        <f>STDEV(Q11:Q13)</f>
-        <v>0.11710000258622487</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -4025,8 +4047,20 @@
       <c r="M14">
         <v>1500000000</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O14">
+        <f>B14/(B14+C14)</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="P14">
+        <f>J14/(J14+K14)</f>
+        <v>0.625</v>
+      </c>
+      <c r="Q14">
+        <f>P14-O14</f>
+        <v>0.18055555555555558</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -4066,8 +4100,20 @@
       <c r="M15">
         <v>4500000000</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O15">
+        <f>B15/(B15+C15)</f>
+        <v>0.6</v>
+      </c>
+      <c r="P15">
+        <f>J15/(J15+K15)</f>
+        <v>0.61224489795918369</v>
+      </c>
+      <c r="Q15">
+        <f>P15-O15</f>
+        <v>1.2244897959183709E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -4107,8 +4153,20 @@
       <c r="M16">
         <v>1999999999.9999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O16">
+        <f>B16/(B16+C16)</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="P16">
+        <f>J16/(J16+K16)</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="Q16">
+        <f>P16-O16</f>
+        <v>-2.3809523809523725E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -4148,8 +4206,20 @@
       <c r="M17">
         <v>1999999999.9999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O17">
+        <f>B17/(B17+C17)</f>
+        <v>0.375</v>
+      </c>
+      <c r="P17">
+        <f>J17/(J17+K17)</f>
+        <v>0.5</v>
+      </c>
+      <c r="Q17">
+        <f>P17-O17</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -4189,8 +4259,20 @@
       <c r="M18">
         <v>2500000000</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O18">
+        <f>B18/(B18+C18)</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="P18">
+        <f>J18/(J18+K18)</f>
+        <v>0.625</v>
+      </c>
+      <c r="Q18">
+        <f>P18-O18</f>
+        <v>0.56944444444444442</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -4230,8 +4312,20 @@
       <c r="M19">
         <v>2500000000</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O19">
+        <f>B19/(B19+C19)</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="P19">
+        <f>J19/(J19+K19)</f>
+        <v>0.75471698113207553</v>
+      </c>
+      <c r="Q19">
+        <f>P19-O19</f>
+        <v>0.46900269541778983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4284,7 +4378,7 @@
         <v>0.1692307692307693</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -4336,16 +4430,8 @@
         <f>P21-O21</f>
         <v>0</v>
       </c>
-      <c r="R21">
-        <f>AVERAGE(Q20:Q22)</f>
-        <v>9.6092796092796126E-2</v>
-      </c>
-      <c r="S21">
-        <f>STDEV(Q20:Q22)</f>
-        <v>8.6919251240878292E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -4398,7 +4484,7 @@
         <v>0.11904761904761907</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -4438,8 +4524,20 @@
       <c r="M23">
         <v>999999999.99999988</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O23">
+        <f>B23/(B23+C23)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P23">
+        <f>L23/(L23+M23)</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="Q23">
+        <f>P23-O23</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -4479,8 +4577,20 @@
       <c r="M24">
         <v>3500000000</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O24">
+        <f>B24/(B24+C24)</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="P24">
+        <f>L24/(L24+M24)</f>
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="Q24">
+        <f>P24-O24</f>
+        <v>0.31216931216931215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -4520,12 +4630,20 @@
       <c r="M25">
         <v>4500000000</v>
       </c>
-      <c r="N25">
-        <f>AVERAGE(L26:L27)</f>
-        <v>5000000000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O25">
+        <f>B25/(B25+C25)</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="P25">
+        <f>L25/(L25+M25)</f>
+        <v>0.84745762711864403</v>
+      </c>
+      <c r="Q25">
+        <f>P25-O25</f>
+        <v>0.41888619854721548</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -4565,16 +4683,20 @@
       <c r="M26">
         <v>1500000000</v>
       </c>
-      <c r="N26">
-        <f>LOG(L26/B26,2)</f>
-        <v>26.575424759098901</v>
-      </c>
       <c r="O26">
-        <f>STDEV(N26:N27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+        <f>B26/(B26+C26)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P26">
+        <f>L26/(L26+M26)</f>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="Q26">
+        <f>P26-O26</f>
+        <v>0.10256410256410264</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -4614,12 +4736,20 @@
       <c r="M27">
         <v>1999999999.9999998</v>
       </c>
-      <c r="N27">
-        <f>LOG(L27/B27,2)</f>
-        <v>26.575424759098901</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O27">
+        <f>B27/(B27+C27)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P27">
+        <f>L27/(L27+M27)</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="Q27">
+        <f>P27-O27</f>
+        <v>4.7619047619047672E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -4654,13 +4784,25 @@
         <v>9000000000</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>5000000000</v>
       </c>
       <c r="M28">
         <v>3000000000</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O28">
+        <f>B28/(B28+C28)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P28">
+        <f>L28/(L28+M28)</f>
+        <v>0.625</v>
+      </c>
+      <c r="Q28">
+        <f>P28-O28</f>
+        <v>-4.166666666666663E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -4713,7 +4855,7 @@
         <v>-0.11428571428571432</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -4765,16 +4907,8 @@
         <f>P30-O30</f>
         <v>3.7313432835820448E-3</v>
       </c>
-      <c r="R30">
-        <f>AVERAGE(Q29:Q31)</f>
-        <v>-0.10828002842928219</v>
-      </c>
-      <c r="S30">
-        <f>STDEV(Q29:Q31)</f>
-        <v>0.10913253659998966</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -4827,7 +4961,7 @@
         <v>-0.2142857142857143</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -4867,8 +5001,20 @@
       <c r="M32">
         <v>1999999999.9999998</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O32">
+        <f>B32/(B32+C32)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P32">
+        <f>J32/(J32+K32)</f>
+        <v>0.41176470588235292</v>
+      </c>
+      <c r="Q32">
+        <f>P32-O32</f>
+        <v>7.8431372549019607E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -4908,8 +5054,20 @@
       <c r="M33">
         <v>3000000000</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O33">
+        <f>B33/(B33+C33)</f>
+        <v>0.96153846153846156</v>
+      </c>
+      <c r="P33">
+        <f>J33/(J33+K33)</f>
+        <v>0.35483870967741937</v>
+      </c>
+      <c r="Q33">
+        <f>P33-O33</f>
+        <v>-0.60669975186104219</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -4949,8 +5107,20 @@
       <c r="M34">
         <v>1500000000</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O34">
+        <f>B34/(B34+C34)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P34">
+        <f>J34/(J34+K34)</f>
+        <v>0.18518518518518517</v>
+      </c>
+      <c r="Q34">
+        <f>P34-O34</f>
+        <v>-0.48148148148148145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -4990,8 +5160,20 @@
       <c r="M35">
         <v>3999999999.9999995</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O35">
+        <f>B35/(B35+C35)</f>
+        <v>0.875</v>
+      </c>
+      <c r="P35">
+        <f>J35/(J35+K35)</f>
+        <v>0.44444444444444436</v>
+      </c>
+      <c r="Q35">
+        <f>P35-O35</f>
+        <v>-0.43055555555555564</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -5031,8 +5213,20 @@
       <c r="M36">
         <v>5000000000</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O36">
+        <f>B36/(B36+C36)</f>
+        <v>0.99009900990099009</v>
+      </c>
+      <c r="P36">
+        <f>J36/(J36+K36)</f>
+        <v>6.9767441860465115E-2</v>
+      </c>
+      <c r="Q36">
+        <f>P36-O36</f>
+        <v>-0.92033156804052496</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -5071,6 +5265,18 @@
       </c>
       <c r="M37">
         <v>3000000000</v>
+      </c>
+      <c r="O37">
+        <f>B37/(B37+C37)</f>
+        <v>0.96153846153846156</v>
+      </c>
+      <c r="P37">
+        <f>J37/(J37+K37)</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="Q37">
+        <f>P37-O37</f>
+        <v>-0.87062937062937062</v>
       </c>
     </row>
   </sheetData>
@@ -5082,8 +5288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DBA7304-481C-7A46-9FF7-925551D2D12A}">
   <dimension ref="A1:G145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="G141" sqref="G141"/>
+    <sheetView topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="F140" sqref="F140:G142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7503,10 +7709,6 @@
       <c r="E140" t="s">
         <v>29</v>
       </c>
-      <c r="F140">
-        <f>C128/(C128+C140)</f>
-        <v>0.75</v>
-      </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
@@ -7524,10 +7726,6 @@
       <c r="E141" t="s">
         <v>29</v>
       </c>
-      <c r="F141">
-        <f>C129/(C129+C141)</f>
-        <v>0.81632653061224492</v>
-      </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
@@ -7545,13 +7743,7 @@
       <c r="E142" t="s">
         <v>29</v>
       </c>
-      <c r="F142">
-        <f>G142/(G142+C142)</f>
-        <v>0.69767441860465118</v>
-      </c>
-      <c r="G142" s="1">
-        <v>5000000000</v>
-      </c>
+      <c r="G142" s="1"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
@@ -7684,7 +7876,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B1" sqref="B1:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7694,12 +7886,12 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>-0.84321201617606545</v>
@@ -7707,7 +7899,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>-0.55381944444444442</v>
@@ -7715,7 +7907,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>-0.73466160658025181</v>
@@ -7723,7 +7915,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B5">
         <v>0.16138763197586736</v>
@@ -7731,7 +7923,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -7739,7 +7931,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B7">
         <v>0.45647969052224374</v>
@@ -7747,7 +7939,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B8">
         <v>8.333333333333337E-2</v>
@@ -7755,7 +7947,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B9">
         <v>0.41632653061224495</v>
@@ -7763,7 +7955,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B10">
         <v>-6.0606060582185428E-2</v>
@@ -7771,7 +7963,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B11">
         <v>-0.11309220580743756</v>
@@ -7779,7 +7971,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B12">
         <v>-0.33320914058618967</v>
@@ -7787,7 +7979,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B13">
         <v>-0.80140909321303666</v>
@@ -7799,6 +7991,539 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9085E127-7F1A-C141-9F88-D468BCE3177A}">
+  <dimension ref="A1:D37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4.4117647000000003E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-0.45588234999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.98684210500000002</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.9850746000000001E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-0.95699135999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.99750623400000005</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-0.93500623000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.99009901</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.33333333300000001</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-0.65676568000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5.2631578999999998E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-0.74736842000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.117647059</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-0.38235293999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.71428571399999996</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.25925925900000002</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-0.45502646000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.99637681199999995</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.23076923099999999</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-0.76560757999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.98684210500000002</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.105691057</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-0.88115105000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.23749999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.83333333300000001</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.85714285700000004</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.3809523999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.70588235300000002</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.91954022999999996</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.213657877</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.44444444399999999</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.18055555600000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.61224489800000004</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.2244898000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.85714285700000004</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.83333333300000001</v>
+      </c>
+      <c r="D16" s="1">
+        <v>-2.3809520000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1">
+        <v>5.5555555999999999E-2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.56944444400000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.28571428599999998</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.75471698099999995</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.46900269500000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.76923076899999998</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.169230769</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.66666666699999999</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.66666666699999999</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.71428571399999996</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.83333333300000001</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.11904761899999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.33333333300000001</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.83333333300000001</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.428571429</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.74074074099999998</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.31216931199999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.428571429</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.84745762700000005</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.41888619900000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.66666666699999999</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.76923076899999998</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.102564103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.66666666699999999</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.71428571399999996</v>
+      </c>
+      <c r="D27" s="1">
+        <v>4.7619047999999997E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.66666666699999999</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="D28" s="1">
+        <v>-4.1666670000000003E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.28571428599999998</v>
+      </c>
+      <c r="D29" s="1">
+        <v>-0.11428571</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.253731343</v>
+      </c>
+      <c r="D30" s="1">
+        <v>3.7313429999999998E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.28571428599999998</v>
+      </c>
+      <c r="D31" s="1">
+        <v>-0.21428570999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.33333333300000001</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.41176470599999998</v>
+      </c>
+      <c r="D32" s="1">
+        <v>7.8431372999999999E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.96153846200000004</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.35483871</v>
+      </c>
+      <c r="D33" s="1">
+        <v>-0.60669974999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.66666666699999999</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.185185185</v>
+      </c>
+      <c r="D34" s="1">
+        <v>-0.48148148000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.44444444399999999</v>
+      </c>
+      <c r="D35" s="1">
+        <v>-0.43055556</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.99009901</v>
+      </c>
+      <c r="C36" s="1">
+        <v>6.9767441999999999E-2</v>
+      </c>
+      <c r="D36" s="1">
+        <v>-0.92033156999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.96153846200000004</v>
+      </c>
+      <c r="C37" s="1">
+        <v>9.0909090999999997E-2</v>
+      </c>
+      <c r="D37" s="1">
+        <v>-0.87062936999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5B0721-9A2C-0F49-A654-548D792AB43E}">
   <dimension ref="A1:E145"/>
   <sheetViews>
